--- a/Frekuensi/Frekuensi Penyusun Pupuh_Crop_10.xlsx
+++ b/Frekuensi/Frekuensi Penyusun Pupuh_Crop_10.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A838"/>
+  <dimension ref="A1:A837"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>2217.919921875</v>
+        <v>473.73046875</v>
       </c>
     </row>
     <row r="207" spans="1:1">
@@ -4199,12 +4199,12 @@
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>0</v>
+        <v>236.865234375</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>236.865234375</v>
+        <v>452.197265625</v>
       </c>
     </row>
     <row r="768" spans="1:1">
@@ -4229,12 +4229,12 @@
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>452.197265625</v>
+        <v>430.6640625</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>430.6640625</v>
+        <v>645.99609375</v>
       </c>
     </row>
     <row r="774" spans="1:1">
@@ -4279,17 +4279,17 @@
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>645.99609375</v>
+        <v>1528.857421875</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>1528.857421875</v>
+        <v>1442.724609375</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>1442.724609375</v>
+        <v>1614.990234375</v>
       </c>
     </row>
     <row r="785" spans="1:1">
@@ -4304,17 +4304,17 @@
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>1614.990234375</v>
+        <v>215.33203125</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>215.33203125</v>
+        <v>430.6640625</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>430.6640625</v>
+        <v>452.197265625</v>
       </c>
     </row>
     <row r="790" spans="1:1">
@@ -4324,12 +4324,12 @@
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>452.197265625</v>
+        <v>1593.45703125</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>1593.45703125</v>
+        <v>1614.990234375</v>
       </c>
     </row>
     <row r="793" spans="1:1">
@@ -4339,12 +4339,12 @@
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>1614.990234375</v>
+        <v>1593.45703125</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>1593.45703125</v>
+        <v>667.529296875</v>
       </c>
     </row>
     <row r="796" spans="1:1">
@@ -4354,12 +4354,12 @@
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>667.529296875</v>
+        <v>882.861328125</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>882.861328125</v>
+        <v>861.328125</v>
       </c>
     </row>
     <row r="799" spans="1:1">
@@ -4419,7 +4419,7 @@
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>861.328125</v>
+        <v>1507.32421875</v>
       </c>
     </row>
     <row r="811" spans="1:1">
@@ -4484,22 +4484,22 @@
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>1507.32421875</v>
+        <v>1528.857421875</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>1528.857421875</v>
+        <v>882.861328125</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>882.861328125</v>
+        <v>1550.390625</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>1550.390625</v>
+        <v>1528.857421875</v>
       </c>
     </row>
     <row r="827" spans="1:1">
@@ -4534,12 +4534,12 @@
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>1528.857421875</v>
+        <v>1507.32421875</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>1507.32421875</v>
+        <v>1528.857421875</v>
       </c>
     </row>
     <row r="835" spans="1:1">
@@ -4554,11 +4554,6 @@
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>1528.857421875</v>
-      </c>
-    </row>
-    <row r="838" spans="1:1">
-      <c r="A838">
         <v>1528.857421875</v>
       </c>
     </row>
